--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -657,10 +681,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -704,28 +728,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="3">
+      <c r="A20" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -750,28 +774,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="3">
+      <c r="B22" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="C22" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="D22" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="3">
+      <c r="E22" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="3">
+      <c r="F22" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="3">
+      <c r="G22" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="3">
+      <c r="H22" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="3">
+      <c r="I22" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1323,10 +1347,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1370,28 +1394,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="3">
+      <c r="A43" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1416,28 +1440,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="C45" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="3">
+      <c r="D45" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="3">
+      <c r="I45" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1989,10 +2013,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2036,28 +2060,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2082,28 +2106,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2510,10 +2534,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K82" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2557,28 +2581,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="3">
+      <c r="A84" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2603,28 +2627,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="3">
+      <c r="B86" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="3">
+      <c r="C86" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="3">
+      <c r="D86" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="3">
+      <c r="E86" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="3">
+      <c r="F86" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="3">
+      <c r="G86" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="3">
+      <c r="H86" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="3">
+      <c r="I86" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3234,10 +3258,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3281,28 +3305,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3327,28 +3351,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3784,10 +3808,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3831,28 +3855,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3877,28 +3901,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4073,10 +4097,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
